--- a/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D3DF70-7432-46F8-B484-B35C55B40977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FD5024-EA04-4084-9248-E1CF60791D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DB38063-76F3-4C7C-9FEE-DE265C3D06F7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2510475-33F4-4C9C-9442-CDCB034AABDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -86,16 +86,16 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,7 +113,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -122,10 +122,10 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,118 +137,136 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDB8B66-D1A2-4907-ACA7-B9C5A784DBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AA2A3F-E721-4E4C-82CF-D9F8BD195046}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -960,10 +978,10 @@
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -972,13 +990,13 @@
         <v>4589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -993,10 +1011,10 @@
         <v>947270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -1008,13 +1026,13 @@
         <v>959447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>2117</v>
@@ -1023,13 +1041,13 @@
         <v>1906716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1085,7 +1103,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1103,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1112,13 +1130,13 @@
         <v>690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1127,13 +1145,13 @@
         <v>2436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1151,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1163,10 +1181,10 @@
         <v>338740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1178,13 +1196,13 @@
         <v>661325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,13 +1270,13 @@
         <v>3522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1267,13 +1285,13 @@
         <v>6605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1282,13 +1300,13 @@
         <v>10127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,16 +1318,16 @@
         <v>1447</v>
       </c>
       <c r="D14" s="7">
-        <v>1508768</v>
+        <v>1508769</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>2354</v>
@@ -1318,13 +1336,13 @@
         <v>1669435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>3801</v>
@@ -1333,13 +1351,13 @@
         <v>3178204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,7 +1369,7 @@
         <v>1451</v>
       </c>
       <c r="D15" s="7">
-        <v>1512290</v>
+        <v>1512291</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1395,7 +1413,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FD5024-EA04-4084-9248-E1CF60791D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6B8564-7CD2-4A3E-924A-A08090D3F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2510475-33F4-4C9C-9442-CDCB034AABDE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55A70B47-BF23-498F-814B-5CD190960AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -681,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AA2A3F-E721-4E4C-82CF-D9F8BD195046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17828CF7-7EBC-4DF2-A4C5-7A071F64A41A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6B8564-7CD2-4A3E-924A-A08090D3F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA7C50B-BE01-4A74-B09C-4210018016F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55A70B47-BF23-498F-814B-5CD190960AEB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68F4AF83-8E7B-4ADF-8F49-B5538B80FD85}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -77,147 +77,129 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -230,19 +212,19 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -254,19 +236,19 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -681,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17828CF7-7EBC-4DF2-A4C5-7A071F64A41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E1637-5A32-4ED9-854F-BECC5DE5E60F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -978,10 +960,10 @@
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -990,13 +972,13 @@
         <v>4589</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1011,10 +993,10 @@
         <v>947270</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -1026,13 +1008,13 @@
         <v>959447</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>2117</v>
@@ -1041,13 +1023,13 @@
         <v>1906716</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1103,7 +1085,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1121,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1130,13 +1112,13 @@
         <v>690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1145,13 +1127,13 @@
         <v>2436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1169,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1181,10 +1163,10 @@
         <v>338740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1196,13 +1178,13 @@
         <v>661325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,13 +1252,13 @@
         <v>3522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1285,13 +1267,13 @@
         <v>6605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1300,13 +1282,13 @@
         <v>10127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1318,16 +1300,16 @@
         <v>1447</v>
       </c>
       <c r="D14" s="7">
-        <v>1508769</v>
+        <v>1508768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>2354</v>
@@ -1336,13 +1318,13 @@
         <v>1669435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>3801</v>
@@ -1351,13 +1333,13 @@
         <v>3178204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,7 +1351,7 @@
         <v>1451</v>
       </c>
       <c r="D15" s="7">
-        <v>1512291</v>
+        <v>1512290</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1413,7 +1395,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA7C50B-BE01-4A74-B09C-4210018016F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{651D5384-3F8C-4659-A3BF-29C49AD1C14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68F4AF83-8E7B-4ADF-8F49-B5538B80FD85}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{133229BC-DFF7-44E9-B175-B9EEA23D895D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -71,184 +71,190 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E1637-5A32-4ED9-854F-BECC5DE5E60F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBA9B8F-478C-4B43-BE4F-D540A5F792B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -784,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -799,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>2026</v>
+        <v>1791</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -814,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>3103</v>
+        <v>2795</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -835,7 +841,7 @@
         <v>299</v>
       </c>
       <c r="D5" s="7">
-        <v>238914</v>
+        <v>229873</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -850,7 +856,7 @@
         <v>627</v>
       </c>
       <c r="I5" s="7">
-        <v>371248</v>
+        <v>334202</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -865,7 +871,7 @@
         <v>926</v>
       </c>
       <c r="N5" s="7">
-        <v>610162</v>
+        <v>564075</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -886,7 +892,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -901,7 +907,7 @@
         <v>630</v>
       </c>
       <c r="I6" s="7">
-        <v>373274</v>
+        <v>335993</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -916,7 +922,7 @@
         <v>930</v>
       </c>
       <c r="N6" s="7">
-        <v>613265</v>
+        <v>566870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -939,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -954,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>3889</v>
+        <v>3496</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -969,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>4589</v>
+        <v>4189</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -990,7 +996,7 @@
         <v>832</v>
       </c>
       <c r="D8" s="7">
-        <v>947270</v>
+        <v>1116276</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1005,7 +1011,7 @@
         <v>1285</v>
       </c>
       <c r="I8" s="7">
-        <v>959447</v>
+        <v>933817</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1020,7 +1026,7 @@
         <v>2117</v>
       </c>
       <c r="N8" s="7">
-        <v>1906716</v>
+        <v>2050093</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1041,7 +1047,7 @@
         <v>833</v>
       </c>
       <c r="D9" s="7">
-        <v>947970</v>
+        <v>1116969</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1056,7 +1062,7 @@
         <v>1291</v>
       </c>
       <c r="I9" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1071,7 +1077,7 @@
         <v>2124</v>
       </c>
       <c r="N9" s="7">
-        <v>1911305</v>
+        <v>2054282</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1094,46 +1100,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>690</v>
+        <v>651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2436</v>
+        <v>2335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1145,13 +1151,13 @@
         <v>316</v>
       </c>
       <c r="D11" s="7">
-        <v>322584</v>
+        <v>308499</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1160,13 +1166,13 @@
         <v>442</v>
       </c>
       <c r="I11" s="7">
-        <v>338740</v>
+        <v>311636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1175,16 +1181,16 @@
         <v>758</v>
       </c>
       <c r="N11" s="7">
-        <v>661325</v>
+        <v>620136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,7 +1202,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1211,7 +1217,7 @@
         <v>443</v>
       </c>
       <c r="I12" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1226,7 +1232,7 @@
         <v>761</v>
       </c>
       <c r="N12" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1249,46 +1255,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>6605</v>
+        <v>5938</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>10127</v>
+        <v>9319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,46 +1306,46 @@
         <v>1447</v>
       </c>
       <c r="D14" s="7">
-        <v>1508768</v>
+        <v>1654649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>2354</v>
       </c>
       <c r="I14" s="7">
-        <v>1669435</v>
+        <v>1579655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>3801</v>
       </c>
       <c r="N14" s="7">
-        <v>3178204</v>
+        <v>3234304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,7 +1357,7 @@
         <v>1451</v>
       </c>
       <c r="D15" s="7">
-        <v>1512290</v>
+        <v>1658030</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1366,7 +1372,7 @@
         <v>2364</v>
       </c>
       <c r="I15" s="7">
-        <v>1676040</v>
+        <v>1585593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1381,7 +1387,7 @@
         <v>3815</v>
       </c>
       <c r="N15" s="7">
-        <v>3188331</v>
+        <v>3243623</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
